--- a/Fuente.xlsx
+++ b/Fuente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ediazm\Desktop\Eric\2026\2. Codigos\Visor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718E9431-577D-48B1-B08F-265E8C033607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C240406-3CDB-484F-AD47-62BFF9446EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CMG-PDO" sheetId="1" r:id="rId1"/>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2831,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ACD36B-17E1-41D9-8D6C-88D183DDE349}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:F97"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4995,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77579099-3DE5-42D9-92B1-5C1A2C42995E}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5035,7 +5035,7 @@
         <v>249.97</v>
       </c>
       <c r="D2" s="7">
-        <v>273.76514243095659</v>
+        <v>263.42138484720141</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -5051,7 +5051,7 @@
         <v>248.41</v>
       </c>
       <c r="D3" s="7">
-        <v>272.51079805331051</v>
+        <v>261.46469449224901</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -5067,7 +5067,7 @@
         <v>246.86</v>
       </c>
       <c r="D4" s="7">
-        <v>270.22909414798562</v>
+        <v>259.31383606990869</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -5083,7 +5083,7 @@
         <v>246.86</v>
       </c>
       <c r="D5" s="7">
-        <v>268.36534283816758</v>
+        <v>259.09068254836279</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5099,7 +5099,7 @@
         <v>246.86</v>
       </c>
       <c r="D6" s="7">
-        <v>266.53539079165421</v>
+        <v>258.3521289659584</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5115,7 +5115,7 @@
         <v>245.31</v>
       </c>
       <c r="D7" s="7">
-        <v>266.40734305681298</v>
+        <v>256.51710297026818</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5131,7 +5131,7 @@
         <v>246.86</v>
       </c>
       <c r="D8" s="7">
-        <v>265.39469140617712</v>
+        <v>254.3163362682383</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5147,7 +5147,7 @@
         <v>246.86</v>
       </c>
       <c r="D9" s="7">
-        <v>263.85504359676321</v>
+        <v>251.87281792100171</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5163,7 +5163,7 @@
         <v>243.77</v>
       </c>
       <c r="D10" s="7">
-        <v>262.41553677376811</v>
+        <v>250.38525590232359</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5179,7 +5179,7 @@
         <v>245.31</v>
       </c>
       <c r="D11" s="7">
-        <v>260.93782149453273</v>
+        <v>248.4206033161183</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -5195,7 +5195,7 @@
         <v>248.41</v>
       </c>
       <c r="D12" s="7">
-        <v>259.56843193783908</v>
+        <v>246.87185614711669</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -5211,7 +5211,7 @@
         <v>245.31</v>
       </c>
       <c r="D13" s="7">
-        <v>257.57382139486549</v>
+        <v>245.154671830029</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -5227,7 +5227,7 @@
         <v>242.23</v>
       </c>
       <c r="D14" s="7">
-        <v>256.0672614659992</v>
+        <v>243.62446648847029</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -5243,7 +5243,7 @@
         <v>242.23</v>
       </c>
       <c r="D15" s="7">
-        <v>255.39984158222089</v>
+        <v>242.45618381183891</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -5259,7 +5259,7 @@
         <v>240.7</v>
       </c>
       <c r="D16" s="7">
-        <v>254.56175292950411</v>
+        <v>240.6299127784217</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -5275,7 +5275,7 @@
         <v>239.18</v>
       </c>
       <c r="D17" s="7">
-        <v>253.29536884244479</v>
+        <v>240.96750184799899</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -5291,7 +5291,7 @@
         <v>237.66</v>
       </c>
       <c r="D18" s="7">
-        <v>251.7052668317439</v>
+        <v>241.59741652542769</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -5307,7 +5307,7 @@
         <v>240.7</v>
       </c>
       <c r="D19" s="7">
-        <v>250.5208677948215</v>
+        <v>242.42303987829311</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -5323,7 +5323,7 @@
         <v>246.86</v>
       </c>
       <c r="D20" s="7">
-        <v>248.62838395644701</v>
+        <v>243.59152730636441</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -5339,7 +5339,7 @@
         <v>246.86</v>
       </c>
       <c r="D21" s="7">
-        <v>246.2157252079563</v>
+        <v>242.56806909932351</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -5355,7 +5355,7 @@
         <v>242.23</v>
       </c>
       <c r="D22" s="7">
-        <v>244.45024661341071</v>
+        <v>241.35689840707829</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -5371,7 +5371,7 @@
         <v>236.15</v>
       </c>
       <c r="D23" s="7">
-        <v>243.01990306769741</v>
+        <v>239.26858782379369</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5387,7 +5387,7 @@
         <v>231.64</v>
       </c>
       <c r="D24" s="7">
-        <v>243.2901867540692</v>
+        <v>238.22157392732191</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -5403,7 +5403,7 @@
         <v>230.15</v>
       </c>
       <c r="D25" s="7">
-        <v>243.42823747208129</v>
+        <v>236.83021927895041</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -5421,25 +5421,25 @@
         <v>230.15</v>
       </c>
       <c r="D26" s="7">
-        <v>242.7440850407128</v>
+        <v>235.58858623887221</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" ref="A27:A58" si="0">+A3+1</f>
+        <f t="shared" ref="A27:A67" si="0">+A3+1</f>
         <v>46050</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" ref="B27:B58" si="1">+B3</f>
+        <f t="shared" ref="B27:B67" si="1">+B3</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27" s="5">
         <v>230.15</v>
       </c>
       <c r="D27" s="7">
-        <v>241.81867451422849</v>
+        <v>235.05160067515791</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -5457,7 +5457,7 @@
         <v>228.67</v>
       </c>
       <c r="D28" s="7">
-        <v>240.00494874893661</v>
+        <v>234.53378899849491</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -5475,7 +5475,7 @@
         <v>225.71</v>
       </c>
       <c r="D29" s="7">
-        <v>238.70695739958441</v>
+        <v>233.60134183306539</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -5493,7 +5493,7 @@
         <v>221.33</v>
       </c>
       <c r="D30" s="7">
-        <v>237.03749784589979</v>
+        <v>231.13830725230829</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -5511,7 +5511,7 @@
         <v>219.88</v>
       </c>
       <c r="D31" s="7">
-        <v>236.215925988728</v>
+        <v>228.4954543847694</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -5529,7 +5529,7 @@
         <v>216.99</v>
       </c>
       <c r="D32" s="7">
-        <v>234.71419190528479</v>
+        <v>227.0972540598504</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -5547,7 +5547,7 @@
         <v>216.99</v>
       </c>
       <c r="D33" s="7">
-        <v>233.0953446410588</v>
+        <v>225.55336348766019</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -5565,7 +5565,7 @@
         <v>216.99</v>
       </c>
       <c r="D34" s="7">
-        <v>233.04128075485849</v>
+        <v>223.9235581179079</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -5583,7 +5583,7 @@
         <v>218.43</v>
       </c>
       <c r="D35" s="7">
-        <v>231.77361733647541</v>
+        <v>222.61280597137579</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -5597,9 +5597,11 @@
         <f t="shared" si="1"/>
         <v>0.41666666666666702</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5">
+        <v>219.88</v>
+      </c>
       <c r="D36" s="7">
-        <v>230.4343210266386</v>
+        <v>222.25100544073629</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -5613,9 +5615,11 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333298</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5">
+        <v>216.99</v>
+      </c>
       <c r="D37" s="7">
-        <v>229.32602791268141</v>
+        <v>220.06174942962471</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -5629,9 +5633,11 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5">
+        <v>211.29</v>
+      </c>
       <c r="D38" s="7">
-        <v>229.65865440799209</v>
+        <v>218.6635131999885</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -5647,7 +5653,7 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7">
-        <v>230.10295722484159</v>
+        <v>218.55657914023081</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -5663,7 +5669,7 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7">
-        <v>229.77213001614371</v>
+        <v>216.83746925481691</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -5679,7 +5685,7 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7">
-        <v>228.3741002970684</v>
+        <v>215.07309199215351</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -5695,7 +5701,7 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7">
-        <v>226.86863495652</v>
+        <v>213.6640326397069</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -5711,7 +5717,7 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7">
-        <v>225.6013536426598</v>
+        <v>214.20970034188539</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -5727,7 +5733,7 @@
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7">
-        <v>225.7149076996343</v>
+        <v>214.88068100482269</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -5743,7 +5749,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7">
-        <v>226.21922752624309</v>
+        <v>214.49305098952041</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -5759,7 +5765,7 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7">
-        <v>225.23674932138491</v>
+        <v>212.68887817241799</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -5775,7 +5781,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7">
-        <v>224.7530396007154</v>
+        <v>210.78666733256591</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -5791,7 +5797,7 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="7">
-        <v>224.43320100358429</v>
+        <v>209.24620049578081</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -5807,7 +5813,7 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="7">
-        <v>224.08024428272799</v>
+        <v>209.57728390722599</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -5822,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>224.6585959614865</v>
+        <v>210.4053008959298</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5835,7 +5841,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D51" s="7">
-        <v>224.72814701958731</v>
+        <v>209.21503664324359</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5848,7 +5854,7 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D52" s="7">
-        <v>223.70463085511241</v>
+        <v>208.71296686591779</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5861,7 +5867,7 @@
         <v>0.125</v>
       </c>
       <c r="D53" s="7">
-        <v>223.85580308296929</v>
+        <v>208.43151442328011</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5874,7 +5880,7 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="D54" s="7">
-        <v>224.3229396834885</v>
+        <v>208.1017218569483</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5887,7 +5893,7 @@
         <v>0.20833333333333301</v>
       </c>
       <c r="D55" s="7">
-        <v>224.04637697197171</v>
+        <v>209.01118253724289</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5900,7 +5906,7 @@
         <v>0.25</v>
       </c>
       <c r="D56" s="7">
-        <v>224.56642323744441</v>
+        <v>209.20553501555341</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5913,7 +5919,7 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="D57" s="7">
-        <v>222.95419441151179</v>
+        <v>207.92868022644191</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5926,73 +5932,163 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="D58" s="7">
-        <v>223.63488009814449</v>
+        <v>208.24630788951279</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D59" s="7"/>
+      <c r="A59" s="2">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="D59" s="7">
+        <v>208.96680886662989</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D60" s="7"/>
+      <c r="A60" s="2">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+      <c r="B60" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D60" s="7">
+        <v>208.66764170166601</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D61" s="7"/>
+      <c r="A61" s="2">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D61" s="7">
+        <v>209.43321398916831</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D62" s="7"/>
+      <c r="A62" s="2">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="7">
+        <v>207.3285547020607</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D63" s="7"/>
+      <c r="A63" s="2">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D63" s="7">
+        <v>208.33591181626969</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D64" s="7">
+        <v>209.0539501992788</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="D65" s="7">
+        <v>210.3292608444003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D66" s="7">
+        <v>211.17770241234959</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="1"/>
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D67" s="7">
+        <v>213.2778159348675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.3">

--- a/Fuente.xlsx
+++ b/Fuente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ediazm\Desktop\Eric\2026\2. Codigos\Visor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D3AC6B-727F-4524-9F01-A8F9261979D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95615AA-FFCB-4B69-9D94-62302E4C668C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CMG-PDO" sheetId="1" r:id="rId1"/>
@@ -7454,7 +7454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAC94BE-5002-4951-A81F-10048CC29D80}">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -9810,7 +9810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77579099-3DE5-42D9-92B1-5C1A2C42995E}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>

--- a/Fuente.xlsx
+++ b/Fuente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ediazm\Desktop\Eric\2026\2. Codigos\Visor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87BB06B-42E8-4138-9539-386F33250520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D46A3A-CA3A-4D89-AC3E-237763CCB900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CMG-PDO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="IEOD" sheetId="8" r:id="rId6"/>
     <sheet name="Resultado" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="0.01"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -11768,16 +11768,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77579099-3DE5-42D9-92B1-5C1A2C42995E}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -11810,7 +11810,7 @@
         <v>249.97</v>
       </c>
       <c r="D2" s="7">
-        <v>263.45538532110709</v>
+        <v>263.69719734379191</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -11826,7 +11826,7 @@
         <v>248.41</v>
       </c>
       <c r="D3" s="7">
-        <v>261.50018381554941</v>
+        <v>261.74020802202358</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -11842,7 +11842,7 @@
         <v>246.86</v>
       </c>
       <c r="D4" s="7">
-        <v>259.35060726912121</v>
+        <v>259.58909219395707</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -11858,7 +11858,7 @@
         <v>246.86</v>
       </c>
       <c r="D5" s="7">
-        <v>259.1301126769863</v>
+        <v>259.36540474892462</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -11874,7 +11874,7 @@
         <v>246.86</v>
       </c>
       <c r="D6" s="7">
-        <v>258.39469164579441</v>
+        <v>258.62622213791258</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -11890,7 +11890,7 @@
         <v>245.31</v>
       </c>
       <c r="D7" s="7">
-        <v>256.5627385264803</v>
+        <v>256.79057909655671</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -11906,7 +11906,7 @@
         <v>246.86</v>
       </c>
       <c r="D8" s="7">
-        <v>254.3651421445465</v>
+        <v>254.58917578177881</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -11922,7 +11922,7 @@
         <v>246.86</v>
       </c>
       <c r="D9" s="7">
-        <v>251.9229200253977</v>
+        <v>252.1453971468425</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -11938,7 +11938,7 @@
         <v>243.77</v>
       </c>
       <c r="D10" s="7">
-        <v>250.43702210373459</v>
+        <v>250.65750097093689</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -11954,7 +11954,7 @@
         <v>245.31</v>
       </c>
       <c r="D11" s="7">
-        <v>248.47412425986499</v>
+        <v>248.69249602556701</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -11970,7 +11970,7 @@
         <v>248.41</v>
       </c>
       <c r="D12" s="7">
-        <v>246.9276454900172</v>
+        <v>247.14329335309091</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -11986,7 +11986,7 @@
         <v>245.31</v>
       </c>
       <c r="D13" s="7">
-        <v>245.21254148304249</v>
+        <v>245.42569130154811</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -12002,7 +12002,7 @@
         <v>242.23</v>
       </c>
       <c r="D14" s="7">
-        <v>243.68460756214839</v>
+        <v>243.89502984978381</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -12018,7 +12018,7 @@
         <v>242.23</v>
       </c>
       <c r="D15" s="7">
-        <v>242.5184240800719</v>
+        <v>242.726325646627</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -12034,7 +12034,7 @@
         <v>240.7</v>
       </c>
       <c r="D16" s="7">
-        <v>240.69448791904381</v>
+        <v>240.8995857616483</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -12050,7 +12050,7 @@
         <v>239.18</v>
       </c>
       <c r="D17" s="7">
-        <v>241.03200976000821</v>
+        <v>241.23718833099551</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -12066,7 +12066,7 @@
         <v>237.66</v>
       </c>
       <c r="D18" s="7">
-        <v>241.66060554801871</v>
+        <v>241.86736784660809</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -12082,7 +12082,7 @@
         <v>240.7</v>
       </c>
       <c r="D19" s="7">
-        <v>242.4861027528126</v>
+        <v>242.6930165305026</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -12098,7 +12098,7 @@
         <v>246.86</v>
       </c>
       <c r="D20" s="7">
-        <v>243.65579349751789</v>
+        <v>243.86126232785961</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -12114,7 +12114,7 @@
         <v>246.86</v>
       </c>
       <c r="D21" s="7">
-        <v>242.6345576115927</v>
+        <v>242.8373578699956</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -12130,7 +12130,7 @@
         <v>242.23</v>
       </c>
       <c r="D22" s="7">
-        <v>241.42450261217149</v>
+        <v>241.62596314224211</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -12146,7 +12146,7 @@
         <v>236.15</v>
       </c>
       <c r="D23" s="7">
-        <v>239.33811597582161</v>
+        <v>239.5372662228437</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -12162,7 +12162,7 @@
         <v>231.64</v>
       </c>
       <c r="D24" s="7">
-        <v>238.2927556010772</v>
+        <v>238.48992029270369</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -12178,7 +12178,7 @@
         <v>230.15</v>
       </c>
       <c r="D25" s="7">
-        <v>236.9021925885076</v>
+        <v>237.0984066807487</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -12196,25 +12196,25 @@
         <v>230.15</v>
       </c>
       <c r="D26" s="7">
-        <v>235.66040771751699</v>
+        <v>235.856804128915</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" ref="A27:A88" si="0">+A3+1</f>
+        <f t="shared" ref="A27:A90" si="0">+A3+1</f>
         <v>46050</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" ref="B27:B88" si="1">+B3</f>
+        <f t="shared" ref="B27:B90" si="1">+B3</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27" s="5">
         <v>230.15</v>
       </c>
       <c r="D27" s="7">
-        <v>235.12395469506271</v>
+        <v>235.3197116288207</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -12232,7 +12232,7 @@
         <v>228.67</v>
       </c>
       <c r="D28" s="7">
-        <v>234.60787509940511</v>
+        <v>234.80155214347729</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -12250,7 +12250,7 @@
         <v>225.71</v>
       </c>
       <c r="D29" s="7">
-        <v>233.67824624807591</v>
+        <v>233.8685390494887</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -12268,7 +12268,7 @@
         <v>221.33</v>
       </c>
       <c r="D30" s="7">
-        <v>231.21865543413259</v>
+        <v>231.40481294680669</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -12286,7 +12286,7 @@
         <v>219.88</v>
       </c>
       <c r="D31" s="7">
-        <v>228.5781215760517</v>
+        <v>228.76149441304531</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -12304,7 +12304,7 @@
         <v>216.99</v>
       </c>
       <c r="D32" s="7">
-        <v>227.18060260179419</v>
+        <v>227.36315727023279</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -12322,7 +12322,7 @@
         <v>216.99</v>
       </c>
       <c r="D33" s="7">
-        <v>225.6375950661045</v>
+        <v>225.8190893808393</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -12340,7 +12340,7 @@
         <v>216.99</v>
       </c>
       <c r="D34" s="7">
-        <v>224.00931555925291</v>
+        <v>224.1889776118135</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -12358,7 +12358,7 @@
         <v>218.43</v>
       </c>
       <c r="D35" s="7">
-        <v>222.69920699449861</v>
+        <v>222.87809623152839</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -12376,7 +12376,7 @@
         <v>219.88</v>
       </c>
       <c r="D36" s="7">
-        <v>222.3387986249115</v>
+        <v>222.51601614947251</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -12394,7 +12394,7 @@
         <v>216.99</v>
       </c>
       <c r="D37" s="7">
-        <v>220.1512724286724</v>
+        <v>220.326412784729</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -12412,7 +12412,7 @@
         <v>211.29</v>
       </c>
       <c r="D38" s="7">
-        <v>216.55190798463741</v>
+        <v>216.72462558214571</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -12430,7 +12430,7 @@
         <v>205.67</v>
       </c>
       <c r="D39" s="7">
-        <v>214.25367393932331</v>
+        <v>214.42397966300931</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -12448,7 +12448,7 @@
         <v>202.9</v>
       </c>
       <c r="D40" s="7">
-        <v>212.87408701179589</v>
+        <v>213.04478367854981</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -12466,7 +12466,7 @@
         <v>204.28</v>
       </c>
       <c r="D41" s="7">
-        <v>212.88664176360911</v>
+        <v>213.05932126457719</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -12484,7 +12484,7 @@
         <v>207.07</v>
       </c>
       <c r="D42" s="7">
-        <v>212.6885599112122</v>
+        <v>212.8625954676013</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -12502,7 +12502,7 @@
         <v>205.67</v>
       </c>
       <c r="D43" s="7">
-        <v>212.20268263914039</v>
+        <v>212.37559071934999</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -12520,7 +12520,7 @@
         <v>202.9</v>
       </c>
       <c r="D44" s="7">
-        <v>211.19016496847931</v>
+        <v>211.3612235523656</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -12538,7 +12538,7 @@
         <v>201.52</v>
       </c>
       <c r="D45" s="7">
-        <v>209.84552189075501</v>
+        <v>210.01553554096569</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -12556,7 +12556,7 @@
         <v>201.52</v>
       </c>
       <c r="D46" s="7">
-        <v>208.55942075260549</v>
+        <v>208.73002308506921</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -12574,7 +12574,7 @@
         <v>202.9</v>
       </c>
       <c r="D47" s="7">
-        <v>206.9221990661857</v>
+        <v>207.09310979921341</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -12592,7 +12592,7 @@
         <v>204.28</v>
       </c>
       <c r="D48" s="7">
-        <v>206.908856603278</v>
+        <v>207.08147351707279</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -12610,7 +12610,7 @@
         <v>202.9</v>
       </c>
       <c r="D49" s="7">
-        <v>206.77352904695181</v>
+        <v>206.94564435629999</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -12628,7 +12628,7 @@
         <v>200.15</v>
       </c>
       <c r="D50" s="7">
-        <v>206.59211357926759</v>
+        <v>206.76312590306921</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -12644,7 +12644,7 @@
         <v>202.9</v>
       </c>
       <c r="D51" s="7">
-        <v>206.98958178045081</v>
+        <v>207.16236740749531</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -12660,7 +12660,7 @@
         <v>204.28</v>
       </c>
       <c r="D52" s="7">
-        <v>206.46911343650129</v>
+        <v>206.6418936211829</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -12676,7 +12676,7 @@
         <v>205.67</v>
       </c>
       <c r="D53" s="7">
-        <v>205.75974390776179</v>
+        <v>205.93206511983951</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -12692,7 +12692,7 @@
         <v>207.07</v>
       </c>
       <c r="D54" s="7">
-        <v>205.29279204550369</v>
+        <v>205.46497629144849</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -12708,7 +12708,7 @@
         <v>207.07</v>
       </c>
       <c r="D55" s="7">
-        <v>206.73096999179509</v>
+        <v>206.9037547117791</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -12724,7 +12724,7 @@
         <v>207.07</v>
       </c>
       <c r="D56" s="7">
-        <v>208.2714380726747</v>
+        <v>208.44572851305921</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -12736,11 +12736,11 @@
         <f t="shared" si="1"/>
         <v>0.29166666666666702</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5">
         <v>208.47</v>
       </c>
       <c r="D57" s="7">
-        <v>208.91484334679799</v>
+        <v>209.09127535698121</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -12752,11 +12752,11 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="5">
         <v>211.29</v>
       </c>
       <c r="D58" s="7">
-        <v>209.00931203062709</v>
+        <v>209.1855118333269</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -12768,11 +12768,11 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="5">
         <v>212.71</v>
       </c>
       <c r="D59" s="7">
-        <v>209.7296137321363</v>
+        <v>209.61374614518411</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -12784,8 +12784,11 @@
         <f t="shared" si="1"/>
         <v>0.41666666666666702</v>
       </c>
+      <c r="C60" s="5">
+        <v>219.88</v>
+      </c>
       <c r="D60" s="7">
-        <v>209.43024734332121</v>
+        <v>210.05872091697771</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -12797,8 +12800,11 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333298</v>
       </c>
+      <c r="C61" s="5">
+        <v>221.33</v>
+      </c>
       <c r="D61" s="7">
-        <v>210.1956204587145</v>
+        <v>212.16863370561049</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -12810,8 +12816,11 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
+      <c r="C62" s="5">
+        <v>219.88</v>
+      </c>
       <c r="D62" s="7">
-        <v>208.09076205122599</v>
+        <v>213.5131101366662</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -12823,8 +12832,11 @@
         <f t="shared" si="1"/>
         <v>0.54166666666666696</v>
       </c>
+      <c r="C63" s="5">
+        <v>218.43</v>
+      </c>
       <c r="D63" s="7">
-        <v>209.09792009676769</v>
+        <v>214.07569022404141</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -12836,8 +12848,11 @@
         <f t="shared" si="1"/>
         <v>0.58333333333333304</v>
       </c>
+      <c r="C64" s="5">
+        <v>215.56</v>
+      </c>
       <c r="D64" s="7">
-        <v>209.81575946280859</v>
+        <v>214.65889008208251</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -12849,8 +12864,11 @@
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
+      <c r="C65" s="5">
+        <v>214.13</v>
+      </c>
       <c r="D65" s="7">
-        <v>211.09087114264671</v>
+        <v>215.10322980893281</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -12862,8 +12880,11 @@
         <f t="shared" si="1"/>
         <v>0.66666666666666696</v>
       </c>
+      <c r="C66" s="5">
+        <v>211.29</v>
+      </c>
       <c r="D66" s="7">
-        <v>211.93911379698329</v>
+        <v>215.2723898303739</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -12875,8 +12896,11 @@
         <f t="shared" si="1"/>
         <v>0.70833333333333304</v>
       </c>
+      <c r="C67" s="5">
+        <v>211.29</v>
+      </c>
       <c r="D67" s="7">
-        <v>214.0390284575445</v>
+        <v>216.58744886271859</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -12888,8 +12912,11 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="C68" s="5">
+        <v>211.29</v>
+      </c>
       <c r="D68" s="7">
-        <v>217.04042937474611</v>
+        <v>217.74872637514019</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -12901,8 +12928,11 @@
         <f t="shared" si="1"/>
         <v>0.79166666666666696</v>
       </c>
+      <c r="C69" s="5">
+        <v>215.56</v>
+      </c>
       <c r="D69" s="7">
-        <v>219.81648477117119</v>
+        <v>217.42112489560199</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -12914,8 +12944,11 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333304</v>
       </c>
+      <c r="C70" s="5">
+        <v>216.99</v>
+      </c>
       <c r="D70" s="7">
-        <v>220.94667751133071</v>
+        <v>217.39010707706339</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -12927,8 +12960,11 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
+      <c r="C71" s="5">
+        <v>216.99</v>
+      </c>
       <c r="D71" s="7">
-        <v>220.99388125255931</v>
+        <v>217.4330405315954</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -12940,8 +12976,11 @@
         <f t="shared" si="1"/>
         <v>0.91666666666666696</v>
       </c>
+      <c r="C72" s="5">
+        <v>225.71</v>
+      </c>
       <c r="D72" s="7">
-        <v>220.13842813470191</v>
+        <v>216.423267173368</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -12953,8 +12992,11 @@
         <f t="shared" si="1"/>
         <v>0.95833333333333304</v>
       </c>
+      <c r="C73" s="5">
+        <v>225.71</v>
+      </c>
       <c r="D73" s="7">
-        <v>218.37728005983519</v>
+        <v>216.0066556447922</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -12966,8 +13008,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="C74" s="5">
+        <v>224.25</v>
+      </c>
       <c r="D74" s="7">
-        <v>216.34329205201931</v>
+        <v>213.96757662605651</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -12979,8 +13024,11 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="C75" s="5">
+        <v>227.19</v>
+      </c>
       <c r="D75" s="7">
-        <v>214.16122413263261</v>
+        <v>214.5370680875094</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -12992,8 +13040,11 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333301E-2</v>
       </c>
+      <c r="C76" s="5">
+        <v>228.67</v>
+      </c>
       <c r="D76" s="7">
-        <v>212.2964185428927</v>
+        <v>215.23359468490989</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -13005,8 +13056,11 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
+      <c r="C77" s="5">
+        <v>227.19</v>
+      </c>
       <c r="D77" s="7">
-        <v>213.50029060831829</v>
+        <v>217.59013543552959</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -13018,8 +13072,11 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666699</v>
       </c>
+      <c r="C78" s="5">
+        <v>227.19</v>
+      </c>
       <c r="D78" s="7">
-        <v>212.64520950714001</v>
+        <v>219.46283456879769</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -13031,8 +13088,11 @@
         <f t="shared" si="1"/>
         <v>0.20833333333333301</v>
       </c>
+      <c r="C79" s="5">
+        <v>231.64</v>
+      </c>
       <c r="D79" s="7">
-        <v>211.10328117555511</v>
+        <v>222.71248445419869</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -13044,8 +13104,11 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
+      <c r="C80" s="5">
+        <v>237.66</v>
+      </c>
       <c r="D80" s="7">
-        <v>210.68082200128629</v>
+        <v>226.8692378241482</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -13057,8 +13120,11 @@
         <f t="shared" si="1"/>
         <v>0.29166666666666702</v>
       </c>
+      <c r="C81" s="5">
+        <v>237.66</v>
+      </c>
       <c r="D81" s="7">
-        <v>210.98455766230151</v>
+        <v>231.08967127642561</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -13070,8 +13136,11 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333298</v>
       </c>
+      <c r="C82" s="5">
+        <v>236.15</v>
+      </c>
       <c r="D82" s="7">
-        <v>210.2537998723418</v>
+        <v>234.02716808318971</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -13083,8 +13152,11 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
+      <c r="C83" s="5">
+        <v>236.15</v>
+      </c>
       <c r="D83" s="7">
-        <v>211.3223812658359</v>
+        <v>235.08925278024859</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -13097,7 +13169,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D84" s="7">
-        <v>212.73926418449</v>
+        <v>236.4996408069691</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -13110,7 +13182,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="D85" s="7">
-        <v>211.58019293203509</v>
+        <v>235.33407646658239</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -13123,7 +13195,7 @@
         <v>0.5</v>
       </c>
       <c r="D86" s="7">
-        <v>209.94360688955749</v>
+        <v>233.6909991396756</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -13136,7 +13208,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="D87" s="7">
-        <v>209.9103410624592</v>
+        <v>233.65124383115119</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -13149,49 +13221,320 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="D88" s="7">
-        <v>210.4844710110894</v>
+        <v>234.21888610085949</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3"/>
-      <c r="D89" s="7"/>
+      <c r="A89" s="2">
+        <f t="shared" si="0"/>
+        <v>46052</v>
+      </c>
+      <c r="B89" s="3">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="D89" s="7">
+        <v>233.15421533527049</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
+      <c r="A90" s="2">
+        <f t="shared" si="0"/>
+        <v>46052</v>
+      </c>
+      <c r="B90" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D90" s="7">
+        <v>231.90526654451699</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3"/>
+      <c r="A91" s="2">
+        <f t="shared" ref="A91:A112" si="2">+A67+1</f>
+        <v>46052</v>
+      </c>
+      <c r="B91" s="3">
+        <f t="shared" ref="B91:B112" si="3">+B67</f>
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D91" s="7">
+        <v>230.8702930708755</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="2">
+        <f t="shared" si="2"/>
+        <v>46052</v>
+      </c>
+      <c r="B92" s="3">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="D92" s="7">
+        <v>231.74996455186201</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="2">
+        <f t="shared" si="2"/>
+        <v>46052</v>
+      </c>
+      <c r="B93" s="3">
+        <f t="shared" si="3"/>
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D93" s="7">
+        <v>234.8204317763165</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="2">
+        <f t="shared" si="2"/>
+        <v>46052</v>
+      </c>
+      <c r="B94" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D94" s="7">
+        <v>236.45938433425579</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="2">
+        <f t="shared" si="2"/>
+        <v>46052</v>
+      </c>
+      <c r="B95" s="3">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+      <c r="D95" s="7">
+        <v>235.78699075007569</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="2">
+        <f t="shared" si="2"/>
+        <v>46052</v>
+      </c>
+      <c r="B96" s="3">
+        <f t="shared" si="3"/>
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D96" s="7">
+        <v>235.6900674898433</v>
+      </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="3"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <f t="shared" si="2"/>
+        <v>46052</v>
+      </c>
+      <c r="B97" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D97" s="7">
+        <v>235.35245141222109</v>
+      </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="3"/>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B98" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="7">
+        <v>234.40310861373521</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B99" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D99" s="7">
+        <v>232.87334229123451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B100" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D100" s="7">
+        <v>231.73764417518819</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B101" s="3">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="D101" s="7">
+        <v>231.75889580372811</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B102" s="3">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D102" s="7">
+        <v>233.74410298846371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B103" s="3">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D103" s="7">
+        <v>234.31282645076291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B104" s="3">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="D104" s="7">
+        <v>232.8702312762228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B105" s="3">
+        <f t="shared" si="3"/>
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D105" s="7">
+        <v>231.5153530964223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B106" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D106" s="7">
+        <v>230.99844580603511</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B107" s="3">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="D107" s="7">
+        <v>231.35751286693059</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B108" s="3">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D108" s="7">
+        <v>231.3430018007073</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B109" s="3">
+        <f t="shared" si="3"/>
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D109" s="7">
+        <v>232.54086595983449</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B110" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="D110" s="7">
+        <v>233.78861943533281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B111" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D111" s="7">
+        <v>234.18405253026901</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <f t="shared" si="2"/>
+        <v>46053</v>
+      </c>
+      <c r="B112" s="3">
+        <f t="shared" si="3"/>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D112" s="7">
+        <v>234.10853440286141</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
